--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-581016.9440167145</v>
+        <v>-583529.3523980797</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>145.2481701217134</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.79054502264442</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>164.9502303766369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>211.4466533806213</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.98090095918576</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>25.97544109408575</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.44874387040214</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>29.28952983701037</v>
       </c>
       <c r="T7" t="n">
-        <v>53.16168816107976</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>346.8890922863371</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.3991884271816</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>36.05773461870358</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9359580870419</v>
       </c>
       <c r="C16" t="n">
-        <v>129.719450923317</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>201.5291659007877</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>31.26260713376709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>106.8299898147636</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>244.98041769</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>116.9020714724182</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.7910873020746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>104.6857048437763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.181533884357</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1565.219016943946</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1206.953318337195</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.24380226932</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1934.181533884357</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556936</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614558</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686062</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064737</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080118</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986287</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695164</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.38058137302</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507435</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275693</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547491</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341958</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
         <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>754.2706114983492</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W4" t="n">
-        <v>754.2706114983492</v>
+        <v>452.6200394500543</v>
       </c>
       <c r="X4" t="n">
-        <v>754.2706114983492</v>
+        <v>396.0736748448162</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.4780323548191</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1616.654488422264</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723277</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.254328486386</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,22 +4662,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.3683227675135</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>891.3016221444371</v>
       </c>
       <c r="T7" t="n">
-        <v>777.3578736655309</v>
+        <v>669.5350067139632</v>
       </c>
       <c r="U7" t="n">
-        <v>777.3578736655309</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="V7" t="n">
-        <v>777.3578736655309</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="W7" t="n">
-        <v>777.3578736655309</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="X7" t="n">
-        <v>549.3683227675135</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.3683227675135</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092018</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1255.676195092018</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>869.8879424937738</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>458.9020377041663</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.780563451991</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>460.8443805240842</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>884.4650516578779</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>884.4650516578779</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>884.4650516578779</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>629.780563451991</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W10" t="n">
-        <v>629.780563451991</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X10" t="n">
-        <v>629.780563451991</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.780563451991</v>
+        <v>217.4203875707507</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5066,19 +5066,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
         <v>632.7243904253734</v>
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718121</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580262</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2415.384692536053</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5981,58 +5981,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2272.00829921169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2052.406834234631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1508.305175991783</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>815.6105350483875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2310.810470143821</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2091.209005166763</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1802.133778510961</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1547.449290305074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,25 +7163,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7190,10 +7190,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,25 +7333,25 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,16 +7397,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345483</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
@@ -7582,28 +7582,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>209.4348714989696</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4473936334091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.18741294719106</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>82.54134148266601</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>169.7287544298514</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>40.64330621514804</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.89602209489536</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52737017531084</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>84.99383243580328</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>186.1428431935212</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>74.196296186881</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>41.54258064659103</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>31.71340154579411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>46.23519869957002</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.644899252</v>
@@ -26332,7 +26332,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
         <v>262322.644899252</v>
@@ -26341,16 +26341,16 @@
         <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="M2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="M2" t="n">
-        <v>262322.644899252</v>
-      </c>
       <c r="N2" t="n">
+        <v>266838.5752058924</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058925</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.223048447078327e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363194</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27249.14345670398</v>
+        <v>27249.14345670406</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26436,13 +26436,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26451,13 +26451,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498546</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234868.185969791</v>
+        <v>-1235158.793134637</v>
       </c>
       <c r="C6" t="n">
-        <v>65307.89054044615</v>
+        <v>65307.8905404463</v>
       </c>
       <c r="D6" t="n">
-        <v>65307.89054044621</v>
+        <v>65307.89054044636</v>
       </c>
       <c r="E6" t="n">
-        <v>-180258.9307039024</v>
+        <v>-180293.6686293379</v>
       </c>
       <c r="F6" t="n">
-        <v>145153.531103453</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="G6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="H6" t="n">
-        <v>145153.5311034524</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="I6" t="n">
-        <v>145153.5311034534</v>
+        <v>145118.7931780171</v>
       </c>
       <c r="J6" t="n">
-        <v>-72377.6712938245</v>
+        <v>-72412.40921926017</v>
       </c>
       <c r="K6" t="n">
-        <v>145153.5311034529</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="L6" t="n">
-        <v>145153.5311034528</v>
+        <v>145118.7931780172</v>
       </c>
       <c r="M6" t="n">
-        <v>60098.50316794107</v>
+        <v>60063.76524250544</v>
       </c>
       <c r="N6" t="n">
-        <v>120209.2981233596</v>
+        <v>120209.2981233598</v>
       </c>
       <c r="O6" t="n">
-        <v>139637.0161169918</v>
+        <v>139637.0161169914</v>
       </c>
       <c r="P6" t="n">
         <v>139637.0161169914</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.981656853925</v>
+        <v>75.07634495596974</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>339.2974506769218</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2823568080669</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>160.4794954944315</v>
       </c>
       <c r="T7" t="n">
-        <v>166.3872611150894</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>64.03263336711638</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>30.4327917547557</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>153.7112907127383</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963265</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164524</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
